--- a/biology/Histoire de la zoologie et de la botanique/John_Latham/John_Latham.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Latham/John_Latham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Latham est un médecin, naturaliste et écrivain britannique, né le 27 juin 1740 à Eltham dans Kent et mort le 4 février 1837.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Latham a été baptisé le "grand-père de l'ornithologie australienne". C'est lui qui étudia la plupart des oiseaux envoyés au Royaume-Uni et les nomma. Parmi ceux-ci, nous pouvons citer l'Émeu, le Cacatoès blanc (Cacatua alba), l'Aigle d'Australie (Aquila audax), le Cassican flûteur (Gymnorhina tibicen) mais aussi un oiseau néotropical, l'Ara hyacinthe (Anodorhynchus hyacinthinus) et un limicole, le Courvite isabelle (Cursorius cursor).
 Fils de chirurgien, Latham pratique également la médecine à Dartford dans le Kent, où il découvre la Fauvette pitchou (Sylvia undata). Il se retire en 1796 et s'installe dans le Hampshire.
@@ -548,7 +562,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A general synopsis of birds, with a suppl. White, Leigh &amp; Sothebys, London 1781-1802.
 Index ornithologicus sive Systema ornithologiæ. London, Paris 1790-1809.
@@ -582,7 +598,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parmi les oiseaux que Latham a décrits, citons ;
 l'Oie des moissons Anser fabalis en 1787 ;
